--- a/HoursReport-2024-01-01_2024-12-31.xlsx
+++ b/HoursReport-2024-01-01_2024-12-31.xlsx
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="384">
-  <si>
-    <t xml:space="preserve">Timeline Report (Brama XS)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="360">
+  <si>
+    <t xml:space="preserve">Timeline Report (BagPoint)</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -33,586 +33,415 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">08/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Bulat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brama XS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting. Troubleshooting the Brama production problems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating the problem with WLAN password (production issue), emailing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solving the problem with PATCH method for WLANs. Emailing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating the problem with WISPr URL for default Landing page. Meetings. Emailing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating account for VFZ and Remedy system. Emailing. Investigating the issue with Landing page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecting to the Remesy system. Learning the Remedy system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings. Learning Remedy system. Investigating the problem with Landing page on the Production environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updating instruction for changing SSL Certificates. Investigating the problem with editing Landing pages on Production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking tickets for Brama XS in Remedy system. Emailing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating and updating the tickets for Brama XS in the Remedy system. Emailing and discussing the tickets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning the Remedy system. Updating tickets in the Remedy system. Emailing. Meetings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working on the tickets on the Remedy system. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">01/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing and updating tickets in Remedy system. Emailing.</t>
+    <t xml:space="preserve">Godwin Semwezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BagPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onboarding. Application setup and team introductions</t>
   </si>
   <si>
     <t xml:space="preserve">02/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">2:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings. Checking tickets in Remedy system</t>
+    <t xml:space="preserve">Onboarding</t>
   </si>
   <si>
     <t xml:space="preserve">05/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Discussing and checking the tickets for Brama in Remedy system.</t>
+    <t xml:space="preserve">Migration of notifications from omnisend to sendgrid</t>
   </si>
   <si>
     <t xml:space="preserve">06/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">07/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting. Checking and updating tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">08/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking the tickets for Brama in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">09/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">0:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting. Checking tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting. Checking tickets for Brama</t>
-  </si>
-  <si>
     <t xml:space="preserve">13/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">1:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking and updating tickets in Remedy system. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">14/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets for Brama</t>
-  </si>
-  <si>
     <t xml:space="preserve">15/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system</t>
-  </si>
-  <si>
     <t xml:space="preserve">16/02/2024</t>
   </si>
   <si>
     <t xml:space="preserve">19/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Planning meetings. Checking the Remedy system</t>
+    <t xml:space="preserve">20/02/2024</t>
   </si>
   <si>
     <t xml:space="preserve">21/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Emailing. Investigating the problem with SSL certificate on the Acceptance environment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">22/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Resolving problem with SSL certificates on Acceptance. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/02/2024</t>
   </si>
   <si>
     <t xml:space="preserve">26/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating tickets in the Remedy system</t>
+    <t xml:space="preserve">Migration of notifications from omnisend to sendgrid and integration testing</t>
   </si>
   <si>
     <t xml:space="preserve">27/02/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking Stream server on YES server.</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/02/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Migration of notifications service from omnisend to sendgrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/02/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing and deployment of notification implementation with sendgrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change format of booking code across micro services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating user flows</t>
+  </si>
+  <si>
     <t xml:space="preserve">07/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Investigate the problem with Create and Configure user (Brama ticket).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigating the problem with Create and Configure Wizard on Production Environment. Updating ticket in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">11/03/2024</t>
   </si>
   <si>
     <t xml:space="preserve">12/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Updating VM with Windows (extend disk size) for connecting to Brama Production. Checking connectivity by VPN.</t>
+    <t xml:space="preserve">Update booking codes to custom 27 character format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User flows registration &amp; password change</t>
   </si>
   <si>
     <t xml:space="preserve">14/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking VPN connection to Acceptance environment. Checking Acceptance environment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">15/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Retro meeting. Checking VPN connection</t>
-  </si>
-  <si>
     <t xml:space="preserve">18/03/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">User flows registration and password change</t>
+  </si>
+  <si>
     <t xml:space="preserve">19/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting one-to-one. Checking tickets in Remedy system.</t>
+    <t xml:space="preserve">20/03/2024</t>
   </si>
   <si>
     <t xml:space="preserve">21/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets for Brama in Remedy system. Investigating problem with Landing pages (error 502) on Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">22/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems with response codes 502/504 on the Production environment (by tickets from Remedy system).</t>
-  </si>
-  <si>
     <t xml:space="preserve">25/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets for Brama. Emailing. Discussing tickets in Teams.</t>
-  </si>
-  <si>
     <t xml:space="preserve">26/03/2024</t>
   </si>
   <si>
     <t xml:space="preserve">27/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Emailing. Investigating the problem with APs on Production (ticket).</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/03/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking, discussing  and updating tickets in Remedy system.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/03/2024</t>
+    <t xml:space="preserve">01/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Userflows: Origin as attribute</t>
   </si>
   <si>
     <t xml:space="preserve">02/04/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">03/04/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">04/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking nginx configs for Brama Production. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">05/04/2024</t>
   </si>
   <si>
     <t xml:space="preserve">08/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">09/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Acceptance environment to reconfigure the Public and Internal frontend. Collect information.</t>
-  </si>
-  <si>
     <t xml:space="preserve">10/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Updating nginx configuration on Acceptance environment. Testing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">11/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating the description how to update nginx configs. Answering email.</t>
+    <t xml:space="preserve">User flows: passing origin as pubsub mesage attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Userflows: Fixing tests related to origin</t>
   </si>
   <si>
     <t xml:space="preserve">16/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Investigating the problem on Brama Production (Remedy ticket)</t>
+    <t xml:space="preserve">Replace pagination logic in LocationViewSet with custom pagination</t>
   </si>
   <si>
     <t xml:space="preserve">17/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investing the problem on Brama Production (Remedy ticket). Answering in the tickets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">18/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking the tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">19/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking configurations of Brama servers and services. Discussing. Writing email. Checking tickets in Renedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">22/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking configuration of services in Production environment.</t>
+    <t xml:space="preserve">Flight API: update to use session id</t>
   </si>
   <si>
     <t xml:space="preserve">23/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Emailing. Checking tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">24/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Check tickets in Remedy system. Answering email about Production update.</t>
-  </si>
-  <si>
     <t xml:space="preserve">25/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Preparing installation steps for update Brama Production. Emailing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">26/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Retro meeting. Collecting information for upcoming update for Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">29/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">30/04/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">2:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating installation steps for upcoming update for Brama Production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/05/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparing the steps to update Brama XS Production</t>
+    <t xml:space="preserve">Flight API: update to use session id [Feedback and Testing]</t>
   </si>
   <si>
     <t xml:space="preserve">02/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing steps for upcoming update for Brama Production. Checking the ticket on Brama Production. Checking the Brama Production environment.</t>
+    <t xml:space="preserve">Implement adyen payment links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Python Adyen library</t>
   </si>
   <si>
     <t xml:space="preserve">03/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing upcoming update for Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">06/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Describing steps to update Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">07/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Updating steps for update Brama Production. Updating Acceptance environment to check update of Production.</t>
+    <t xml:space="preserve">adyen payment links</t>
   </si>
   <si>
     <t xml:space="preserve">08/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Updating steps for upcoming update of Brama Production. Testing changes on the Acceptance environment.</t>
+    <t xml:space="preserve">\t\nadyen payment links</t>
   </si>
   <si>
     <t xml:space="preserve">09/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking steps to update Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">13/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Update steps for upcoming update of Brama Production. Writing email. Checking a problem with  WPA Enterprise configurations (email from Noah).</t>
+    <t xml:space="preserve">Refactor tests to use ApiTransactionTestCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix tests with duplicate pk keys</t>
   </si>
   <si>
     <t xml:space="preserve">15/05/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Update tests with factory seed in order to stop unique key collisions</t>
+  </si>
+  <si>
     <t xml:space="preserve">16/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Update BramaXS Production - night change window.</t>
+    <t xml:space="preserve">Update tests with seed to prevent mock data collisions</t>
   </si>
   <si>
     <t xml:space="preserve">17/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Night update of Brama Production. Checking and updating ticket for Brama in Remedy system.</t>
+    <t xml:space="preserve">Fix adyen payment links\nRaise test seed PRs\nDiscuss / Plan dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">20/05/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Payment links feedback, Investigate permissions and scopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/05/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug adyen payment links</t>
+  </si>
+  <si>
     <t xml:space="preserve">22/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating problem on Brama Production (ticket in Remedy). Checking Brama Production after update.</t>
+    <t xml:space="preserve">Debug adyen payment links
+Dashboard Scopes</t>
   </si>
   <si>
     <t xml:space="preserve">23/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating tickets in Remedy system. Discussing the problems on the Brama Production.</t>
+    <t xml:space="preserve">Dashboard permissions</t>
   </si>
   <si>
     <t xml:space="preserve">24/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Merging branches. Closing issues in GitLab.</t>
+    <t xml:space="preserve">Dashboard permissons</t>
   </si>
   <si>
     <t xml:space="preserve">27/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Checking tickets in Remedy system. Preparing information about the problem with errors 502/504 on Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing information for Noah regarding to error 502/054 on Production. Answering emails. Investigating the problem with Switches on Brama Production according to ticket in Remedy system. Updating the tickets.</t>
+    <t xml:space="preserve">Dashboard permissions
+Forgot password flow</t>
   </si>
   <si>
     <t xml:space="preserve">29/05/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Forgot password flow</t>
+  </si>
+  <si>
     <t xml:space="preserve">30/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem with errors 502/504 on the Brama Production. Investigating the problem according to the tickets in Remedy system.</t>
+    <t xml:space="preserve">Forgot pasword flow for Dashboard &amp; Customer Website</t>
   </si>
   <si>
     <t xml:space="preserve">31/05/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyzing logs from Production. Discussions. Checking tickets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/06/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Answering and updating the tickets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">04/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating the tickets in Remedy system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">05/06/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Dashboard login &amp; forgot password flow testing on test and acceptance</t>
+  </si>
+  <si>
     <t xml:space="preserve">06/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyzing logs from Brama Production. Emailing. Checking tickets in Remedy system.</t>
+    <t xml:space="preserve">Forgot Password Tests</t>
   </si>
   <si>
     <t xml:space="preserve">07/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Discussing the problems with Brama Production.</t>
+    <t xml:space="preserve">Adding RTL to dashboard repo
+1 day Email</t>
   </si>
   <si>
     <t xml:space="preserve">10/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">5:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings. Updating configuration of services on Brama Production. Checking. Collecting and analyzing the logs.</t>
+    <t xml:space="preserve">1 day reminder email</t>
   </si>
   <si>
     <t xml:space="preserve">11/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Investigating the problem with errors 502/504 and collecting the logs on Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Brama Production. Checking tickets in Remedy system. Emailing.</t>
+    <t xml:space="preserve">1 day reminder task</t>
   </si>
   <si>
     <t xml:space="preserve">13/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating tickets in Remedy system. Checking the Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">14/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking Brama Production.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/06/2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">18/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Emailing. Checking and updating the tickets in Remedy system. Checking Brama Production.</t>
+    <t xml:space="preserve">1 day pickup reminder email</t>
   </si>
   <si>
     <t xml:space="preserve">19/06/2024</t>
@@ -621,103 +450,108 @@
     <t xml:space="preserve">20/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets for Brama. Checking Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">21/06/2024</t>
   </si>
   <si>
     <t xml:space="preserve">24/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Checking tickets in Remedy system. Checking Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">25/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking traefik with expired certificates on Local environments.</t>
-  </si>
-  <si>
     <t xml:space="preserve">26/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking traefik with expired certificates on Acceptance environment.</t>
+    <t xml:space="preserve">1 day reminder email - notifications</t>
   </si>
   <si>
     <t xml:space="preserve">27/06/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">one day reminder email
+Payment links debugging and fix</t>
+  </si>
+  <si>
     <t xml:space="preserve">28/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Discussing and emailing regarding to the certificates for Traefik.</t>
+    <t xml:space="preserve">Fixing failing tests after introduction of 1 day reminder scheduler
+Fix flight authorization token used with the scheduler</t>
   </si>
   <si>
     <t xml:space="preserve">01/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking Production.</t>
+    <t xml:space="preserve">Payment links notification failing tests
+Fix token bug for subscription scheduler
+Fix session uuid flight prs</t>
   </si>
   <si>
     <t xml:space="preserve">02/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets and Production.</t>
+    <t xml:space="preserve">Improve booking endpoint for dashbpard planning</t>
   </si>
   <si>
     <t xml:space="preserve">03/07/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Move channel viewset booking functionality to booking viewset</t>
+  </si>
+  <si>
     <t xml:space="preserve">04/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Solving the problem on Brama Production. Collecting logs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">05/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Brama Production and tickets in Remedy system. Meeting Demo and Retro.</t>
+    <t xml:space="preserve">Optimizing booking queryset queries</t>
   </si>
   <si>
     <t xml:space="preserve">08/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Brama Production. Meetings</t>
+    <t xml:space="preserve">Improve booking api</t>
   </si>
   <si>
     <t xml:space="preserve">09/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating the tickets in Remedy system. Investigating the problem with Keycloak on Brama Production.</t>
+    <t xml:space="preserve">Improving booking api for dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">10/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system and Brama Production.</t>
+    <t xml:space="preserve">Improving booking api for dashboard
+Modify dashboard to use updated booking api</t>
   </si>
   <si>
     <t xml:space="preserve">11/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system and Production.</t>
+    <t xml:space="preserve">Connect dashboard to booking api</t>
   </si>
   <si>
     <t xml:space="preserve">12/07/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Connect and test dashboard to booking api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/07/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixes for frontend &amp; backend of dashboard improvement feature</t>
+  </si>
+  <si>
     <t xml:space="preserve">16/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking the Acceptance environment. Restoring Acceptance environment after test changes.</t>
-  </si>
-  <si>
     <t xml:space="preserve">17/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking environments.</t>
+    <t xml:space="preserve">Dashboard sort functionality</t>
   </si>
   <si>
     <t xml:space="preserve">18/07/2024</t>
@@ -726,154 +560,169 @@
     <t xml:space="preserve">19/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Checking Production. Demo/Retro meeting.</t>
-  </si>
-  <si>
     <t xml:space="preserve">22/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and restoring Brama Production. Emailing.</t>
+    <t xml:space="preserve">Fixing scheduling error handling bug
+Resolving production bugs</t>
   </si>
   <si>
     <t xml:space="preserve">23/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating and answering on the tickets in Remedy system.</t>
+    <t xml:space="preserve">Fixing bugs week</t>
   </si>
   <si>
     <t xml:space="preserve">24/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems on the Brama Production according to tickets.</t>
+    <t xml:space="preserve">Bugfix week - Record locator fix</t>
   </si>
   <si>
     <t xml:space="preserve">25/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Emailing. Investigating the problems on Brama Production according to tickets.</t>
+    <t xml:space="preserve">Performance evaluation
+Scheduled task bug fixing</t>
   </si>
   <si>
     <t xml:space="preserve">26/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Restoring Brama Production. Investigating the problem with Keycloak service on Production. Checking tickets.</t>
+    <t xml:space="preserve">Scheduled task fixes.
+Command to extend expiry date of existing scheduled tasks</t>
   </si>
   <si>
     <t xml:space="preserve">29/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets and Brama Production.</t>
+    <t xml:space="preserve">Troubleshooting issues with one day reminder email
+Adding token with fewer permissions to payment links</t>
   </si>
   <si>
     <t xml:space="preserve">30/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussing problem on Production related to ticket. Checking tickets.</t>
+    <t xml:space="preserve">Troubleshooting issues with one day reminder email Adding token with fewer permissions to payment links. Command to extend expiry date of tokens
+</t>
   </si>
   <si>
     <t xml:space="preserve">31/07/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets and Brama Production</t>
+    <t xml:space="preserve">Fixing one day reminder tests blocking release. Complete command extending token expiry dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expiry token command. Deletion of scheduled tasks whose departure date has passed</t>
   </si>
   <si>
     <t xml:space="preserve">02/08/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Fix tests for token expiry. Fix schedule error. Code reviews</t>
+  </si>
+  <si>
     <t xml:space="preserve">05/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking and updating the tickets in Remedy system. Checking Production.</t>
+    <t xml:space="preserve">Deleting scheduled tasks.
+Bug triage</t>
   </si>
   <si>
     <t xml:space="preserve">06/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Production and tickets in Remedy system.</t>
+    <t xml:space="preserve">Log, triage and fix bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log, triage, fix bug. reference session uuid instead of record locator</t>
   </si>
   <si>
     <t xml:space="preserve">08/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem regarding to ticket in Remedy system. Emailing.</t>
+    <t xml:space="preserve">session uuid usage &amp; bug triage</t>
   </si>
   <si>
     <t xml:space="preserve">09/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem on Production regarding to ticket in Remedy system. Collecting logs on Production.</t>
+    <t xml:space="preserve">Session uuid flight resolution &amp; bug triage</t>
   </si>
   <si>
     <t xml:space="preserve">12/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyzing logs from Production related to ticket.</t>
+    <t xml:space="preserve">Robots.txt, fixing test</t>
   </si>
   <si>
     <t xml:space="preserve">13/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyzing logs and checking tickets in Remedy system.</t>
+    <t xml:space="preserve">deployment pipeline, fix schedule scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve scope selection for OAuth applications</t>
   </si>
   <si>
     <t xml:space="preserve">15/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussing the problem on Brama Production. Checking this problem on our local environments.</t>
+    <t xml:space="preserve">16/08/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch scopes admin widget</t>
   </si>
   <si>
     <t xml:space="preserve">19/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Discussing the tickets.</t>
+    <t xml:space="preserve">Add creation tie to access token change view. Add widget to assign scopes</t>
   </si>
   <si>
     <t xml:space="preserve">20/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Investigating the problem regarding to the ticket.</t>
+    <t xml:space="preserve">Fix bug involving sync command creating duplicate applications</t>
   </si>
   <si>
     <t xml:space="preserve">21/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem on Production regarding to ticket.</t>
-  </si>
-  <si>
     <t xml:space="preserve">22/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem on Production with Access Point (regarding to ticket)</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problem on Production and discussing the tickets for Brama. Meetings.</t>
+    <t xml:space="preserve">Fix booking cancellation flow adyen error</t>
   </si>
   <si>
     <t xml:space="preserve">26/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing test image for collecting additional logs on Brama Production.</t>
+    <t xml:space="preserve">Dynamic permissions system</t>
   </si>
   <si>
     <t xml:space="preserve">27/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing and testing the test image for collecting additional logs on Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Answering on the tickets in Remedy system. Preparing and testing the test image to collect logs on Production. Collecting the logs on Production. Checking logs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">29/08/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussing the problem on Brama Production regarding to the ticket. Emailing. Answering in the tickets (Remedy system).</t>
+    <t xml:space="preserve">30/08/2024</t>
   </si>
   <si>
     <t xml:space="preserve">02/09/2024</t>
@@ -882,64 +731,217 @@
     <t xml:space="preserve">03/09/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Dynamic permissions system - Migrations</t>
+  </si>
+  <si>
     <t xml:space="preserve">04/09/2024</t>
   </si>
   <si>
     <t xml:space="preserve">05/09/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets and Brama Production. Analyzing logs and collecting information. Writing email about found problems.</t>
+    <t xml:space="preserve">Dynamic permissions system - Data migrations</t>
   </si>
   <si>
     <t xml:space="preserve">06/09/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Checking tickets and Brama Production.</t>
-  </si>
-  <si>
     <t xml:space="preserve">09/09/2024</t>
   </si>
   <si>
     <t xml:space="preserve">10/09/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">11/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions system - Data migrations, Refactor out location owner and author attributes into grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions system - Locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions system - Bookings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants - constraints, fixtures and location admin widgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions - constraints, application model grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions - Token issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants - token issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants - refresh token</t>
+  </si>
+  <si>
     <t xml:space="preserve">27/09/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Dynamic grants - refresh tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/09/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic permissions - Refresh Tokens, Removal of phone number from emails, Code Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants refresh token deployment and testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants end to end feature testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants - Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic grants system testing</t>
+  </si>
+  <si>
     <t xml:space="preserve">08/10/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting. Checking Brama Production.</t>
+    <t xml:space="preserve">Route model indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/10/2024</t>
   </si>
   <si>
     <t xml:space="preserve">14/10/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking information and answering on email related to help with creating the landing page template (VFZ)</t>
+    <t xml:space="preserve">Claim tag generation</t>
   </si>
   <si>
     <t xml:space="preserve">15/10/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting the VFZ - collecting information about creating the Landing page Template, meeting.</t>
+    <t xml:space="preserve">16/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolving tenant bagpointlogistics bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upgrade psycorpg2 to 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debugging production deploy, update psycopg2 to psycopg3</t>
   </si>
   <si>
     <t xml:space="preserve">01/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Investigating the nginx configurations regarding to the pentest results from VFZ.	</t>
+    <t xml:space="preserve">Upgrade psycopg</t>
   </si>
   <si>
     <t xml:space="preserve">04/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Investigating the problems found by the pentest from VFZ.</t>
+    <t xml:space="preserve">Testing postgres 16 and psycopg3 upgrades</t>
   </si>
   <si>
     <t xml:space="preserve">05/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems found by the pentest from VFZ.</t>
+    <t xml:space="preserve">Add Airport delivery to booking engine</t>
   </si>
   <si>
     <t xml:space="preserve">06/11/2024</t>
@@ -951,211 +953,151 @@
     <t xml:space="preserve">08/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems found by the pentest from VFZ. Writing email about results.</t>
+    <t xml:space="preserve">11/11/2024</t>
   </si>
   <si>
     <t xml:space="preserve">12/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking Acceptance environment. Testing the rate limiting issue.</t>
+    <t xml:space="preserve">Add Airport delivery to booking engine, bug fixes</t>
   </si>
   <si>
     <t xml:space="preserve">13/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing rate limiting implementation. Preparing test environment like on Production.</t>
+    <t xml:space="preserve">Enable sessions for City Deliveries in Flight</t>
   </si>
   <si>
     <t xml:space="preserve">14/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Preparing test environment like on Production. Testing rate limiting implementation.</t>
+    <t xml:space="preserve">Update booking functionality</t>
   </si>
   <si>
     <t xml:space="preserve">15/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">8:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings. Testing the rate limiting issue.</t>
-  </si>
-  <si>
     <t xml:space="preserve">18/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Meetings. Testing the Rate Limiting implementation.</t>
+    <t xml:space="preserve">update booking via booking engine</t>
   </si>
   <si>
     <t xml:space="preserve">19/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing the Rate Limiting. Discussions.</t>
-  </si>
-  <si>
     <t xml:space="preserve">20/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting the VFZ (login to Acceptance). Testing the Rate Limiting.</t>
+    <t xml:space="preserve">update booking via booking engine - Fixes</t>
   </si>
   <si>
     <t xml:space="preserve">21/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing the Rate Limiting and AP Status issues. Merging branches.</t>
+    <t xml:space="preserve">booking replacement pricing structure</t>
   </si>
   <si>
     <t xml:space="preserve">22/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Tare Limiting and AP Status issues. Deploying docker images (Rate Limiting) on Acceptance environment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">25/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing apStatus issue. Investigating the problem on Production with Service IDs. Emailing. Answering on the ticket in the Ticket system.</t>
+    <t xml:space="preserve">Currency rates</t>
   </si>
   <si>
     <t xml:space="preserve">26/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing AP Status issue. Investigating the problem found on Acceptance environment (related to Rate Limiting). Creating issue for frontend.</t>
+    <t xml:space="preserve">Currency rates, Email template updates</t>
   </si>
   <si>
     <t xml:space="preserve">27/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing AP Status issue. Testing the changes for Create and Configure wizard in frontend. Deploying frontend changes on Acceptance environment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">28/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying and Testing AP Status issue on Acceptance environment. Discussing the values for Rate Limiting. Emailing.</t>
+    <t xml:space="preserve">Currency rates, Map in admin panel</t>
   </si>
   <si>
     <t xml:space="preserve">29/11/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Merging branches. Creating release tags. Building images. Deploying tagged images on Acceptance environment. Meetings.</t>
+    <t xml:space="preserve">Setting channel currency per request</t>
   </si>
   <si>
     <t xml:space="preserve">02/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking environments. Preparing information for upcoming update. Supporting the team member (providing information about user roles in Brama XS). Checking tickets.</t>
+    <t xml:space="preserve">Booking currency flow</t>
   </si>
   <si>
     <t xml:space="preserve">03/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Writing notes (information) for upcoming Brama update.</t>
-  </si>
-  <si>
     <t xml:space="preserve">04/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussing the Keycloak deployment. Checking tickets in Remedy system. Checking environments.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating documentation: installation steps for release 3.3.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparing the installation steps for upcoming release 3.3.1. Discussions.</t>
+    <t xml:space="preserve">Currency conversion rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update booking with currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application level booking, review prs</t>
   </si>
   <si>
     <t xml:space="preserve">12/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems on Brama Production (tickets in Remedy system)</t>
+    <t xml:space="preserve">Application level booking ownership</t>
   </si>
   <si>
     <t xml:space="preserve">13/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigating the problems on Brama Production (tickets in Remedy system). Answering in the tickets.</t>
+    <t xml:space="preserve">16/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date time filters in admin panel</t>
   </si>
   <si>
     <t xml:space="preserve">17/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Discussing and checking the problem related to the ticket from Remedy system.</t>
+    <t xml:space="preserve">Duplicate locations bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/12/2024</t>
   </si>
   <si>
     <t xml:space="preserve">19/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Creating documentation for upcoming update of Brama. Emailing.</t>
+    <t xml:space="preserve">Fix backend duplicate locations bug</t>
   </si>
   <si>
     <t xml:space="preserve">20/12/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking tickets in Remedy system. Emailing regarding to upcoming Brama update.</t>
+    <t xml:space="preserve">Plan to reconcile duplicate locations across the application</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">458:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mykhailo Moskalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on issue #175 about Angular update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on the issue #175 about Angular update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on issue #175 about Angular updating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on the issue #175 about Angular updating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on issue #175 about Angular updating libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on issue #175 about Angular update libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on issue #175 about updating Angular libraries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on issue #419 about service id refactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergiy Ignatenko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I continued https://gitlab.com/evresys/backend/-/issues/1781 and started https://gitlab.com/evresys/backend/-/issues/1782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I worked on https://gitlab.com/evresys/backend/-/issues/1780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:00</t>
+    <t xml:space="preserve">1808:00</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date 01.01.2024</t>
@@ -1164,7 +1106,7 @@
     <t xml:space="preserve">End Date 31.12.2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Hours Total 552:00</t>
+    <t xml:space="preserve">Hours Total 1808:00</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1241,26 +1183,6 @@
       <sz val="13"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1282,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1842,73 +1764,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1923,11 +1913,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="184.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="129.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1980,32 +1970,32 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2014,15 +2004,15 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2031,15 +2021,15 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2048,15 +2038,15 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2065,15 +2055,15 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2082,15 +2072,15 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2099,15 +2089,15 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2116,15 +2106,15 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2133,15 +2123,15 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2150,15 +2140,15 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2167,15 +2157,15 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2184,15 +2174,15 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -2201,15 +2191,15 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2221,12 +2211,12 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2238,12 +2228,12 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -2255,12 +2245,12 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2269,15 +2259,15 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -2286,15 +2276,15 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2303,15 +2293,15 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -2323,12 +2313,12 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="29" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -2340,12 +2330,12 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="30" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -2357,12 +2347,12 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="31" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -2371,15 +2361,15 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="32" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -2388,15 +2378,15 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -2405,15 +2395,15 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -2422,15 +2412,15 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="35" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -2442,12 +2432,12 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="36" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -2459,12 +2449,12 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="37" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2476,12 +2466,12 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -2490,15 +2480,15 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="39" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -2507,15 +2497,15 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="40" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -2524,15 +2514,15 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="41" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2541,15 +2531,15 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="42" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -2558,15 +2548,15 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="43" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -2575,15 +2565,15 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="44" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -2592,15 +2582,15 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="45" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2612,12 +2602,12 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="46" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2626,15 +2616,15 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="47" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -2643,15 +2633,15 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="48" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2660,15 +2650,15 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="49" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2680,12 +2670,12 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="50" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2694,15 +2684,15 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="51" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -2711,15 +2701,15 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -2731,12 +2721,12 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="53" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2745,15 +2735,15 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="54" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2762,15 +2752,15 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="55" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2779,15 +2769,15 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="56" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2799,12 +2789,12 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="57" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2813,15 +2803,15 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="58" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2830,15 +2820,15 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="59" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2847,15 +2837,15 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="60" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2864,15 +2854,15 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="61" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2881,15 +2871,15 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="62" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2898,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="63" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2915,15 +2905,15 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="64" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2935,12 +2925,12 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="65" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2952,12 +2942,12 @@
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="66" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2969,12 +2959,12 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="67" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2983,15 +2973,15 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="68" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -3000,15 +2990,15 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="69" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -3017,15 +3007,15 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="70" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -3034,15 +3024,15 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="71" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -3051,15 +3041,15 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="72" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -3068,15 +3058,15 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="73" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -3085,15 +3075,15 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="74" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -3102,15 +3092,15 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="75" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -3119,15 +3109,15 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="76" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -3136,15 +3126,15 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="77" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -3156,12 +3146,12 @@
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="78" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -3170,15 +3160,15 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="79" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -3187,15 +3177,15 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="80" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -3204,15 +3194,15 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="81" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -3221,15 +3211,15 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="82" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -3238,15 +3228,15 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="83" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -3255,15 +3245,15 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="84" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -3272,15 +3262,15 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="85" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -3292,12 +3282,12 @@
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="86" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -3306,15 +3296,15 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="87" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -3323,15 +3313,15 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="88" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3340,15 +3330,15 @@
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="89" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3357,15 +3347,15 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="90" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3374,15 +3364,15 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="91" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -3391,15 +3381,15 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="92" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -3411,12 +3401,12 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="93" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -3425,15 +3415,15 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="94" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -3442,15 +3432,15 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="95" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -3459,15 +3449,15 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="96" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3476,15 +3466,15 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="97" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -3493,15 +3483,15 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="98" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -3510,15 +3500,15 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="99" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3527,15 +3517,15 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="100" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -3547,12 +3537,12 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="101" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -3564,12 +3554,12 @@
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="102" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -3578,15 +3568,15 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="103" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -3598,12 +3588,12 @@
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="104" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -3615,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="105" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -3632,12 +3622,12 @@
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="106" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -3646,15 +3636,15 @@
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="107" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3663,15 +3653,15 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="108" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -3680,15 +3670,15 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="109" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -3697,15 +3687,15 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="110" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3717,12 +3707,12 @@
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="111" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3731,15 +3721,15 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="112" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3748,15 +3738,15 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="113" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3765,15 +3755,15 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="114" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3782,15 +3772,15 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="115" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3799,15 +3789,15 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="116" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3816,15 +3806,15 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="117" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3833,15 +3823,15 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="118" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3850,15 +3840,15 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="119" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3867,15 +3857,15 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="120" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3884,15 +3874,15 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="121" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3901,15 +3891,15 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="122" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3918,15 +3908,15 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="123" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3935,15 +3925,15 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="124" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3952,15 +3942,15 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="125" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3969,15 +3959,15 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="126" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3986,15 +3976,15 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="127" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -4003,15 +3993,15 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="128" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -4020,15 +4010,15 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="129" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -4037,15 +4027,15 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="130" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -4054,15 +4044,15 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="131" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -4074,12 +4064,12 @@
         <v>9</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="132" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -4088,15 +4078,15 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="133" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -4105,15 +4095,15 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="134" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -4125,12 +4115,12 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="135" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -4139,15 +4129,15 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="136" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -4156,15 +4146,15 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="137" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -4173,15 +4163,15 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="138" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -4190,15 +4180,15 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="139" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -4210,12 +4200,12 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="140" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -4224,15 +4214,15 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="141" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -4244,12 +4234,12 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="142" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -4258,15 +4248,15 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="143" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -4275,15 +4265,15 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="144" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -4292,15 +4282,15 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="145" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -4309,15 +4299,15 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="146" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -4329,12 +4319,12 @@
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="147" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -4343,15 +4333,15 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="148" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -4360,15 +4350,15 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="149" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -4377,15 +4367,15 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="150" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -4394,15 +4384,15 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="151" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -4411,15 +4401,15 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="152" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -4431,12 +4421,12 @@
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="153" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -4445,15 +4435,15 @@
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="154" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -4462,15 +4452,15 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="155" t="s">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -4479,15 +4469,15 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="156" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -4496,15 +4486,15 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E153" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="157" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -4513,15 +4503,15 @@
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="158" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -4530,15 +4520,15 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="159" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -4550,12 +4540,12 @@
         <v>9</v>
       </c>
       <c r="E156" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="160" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -4564,15 +4554,15 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E157" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="161" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -4581,15 +4571,15 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E158" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="162" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -4598,15 +4588,15 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="163" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -4615,15 +4605,15 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="164" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -4632,15 +4622,15 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="165" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -4649,15 +4639,15 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="166" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -4666,15 +4656,15 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E163" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="167" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -4683,15 +4673,15 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="168" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -4700,15 +4690,15 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E165" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="169" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -4717,15 +4707,15 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="170" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4734,15 +4724,15 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="171" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4751,15 +4741,15 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="172" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4768,15 +4758,15 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="173" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4785,15 +4775,15 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="174" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4802,15 +4792,15 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="175" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4819,15 +4809,15 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="176" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4836,15 +4826,15 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="177" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4853,15 +4843,15 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="178" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4870,15 +4860,15 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="179" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4887,15 +4877,15 @@
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="180" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4904,15 +4894,15 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="181" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4921,15 +4911,15 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="182" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4938,15 +4928,15 @@
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="183" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4955,15 +4945,15 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="184" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4972,15 +4962,15 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="185" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -4989,15 +4979,15 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="186" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -5006,15 +4996,15 @@
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="187" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -5023,15 +5013,15 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="188" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -5040,15 +5030,15 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="189" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -5057,15 +5047,15 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="190" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -5074,60 +5064,86 @@
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="191" t="s">
-        <v>362</v>
-      </c>
-      <c r="B188" s="192" t="s">
-        <v>363</v>
+        <v>289</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="192" t="s">
+        <v>290</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="193" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="194" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>366</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="195" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="B192" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>8</v>
@@ -5136,202 +5152,202 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="196" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="B193" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="197" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="198" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="B195" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="199" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="B196" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="200" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B197" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="201" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B198" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="202" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="E199" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="203" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="204" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="B201" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="E201" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="205" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="B202" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E202" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="206" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="B203" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="207" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B204" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -5340,89 +5356,455 @@
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="208" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B205" t="s">
-        <v>364</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="209" t="s">
-        <v>362</v>
-      </c>
-      <c r="B206" s="210" t="s">
-        <v>374</v>
+        <v>316</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="210" t="s">
+        <v>318</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="211" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="B208" t="s">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
       </c>
       <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
         <v>320</v>
-      </c>
-      <c r="E208" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="212" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="B209" t="s">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>320</v>
+        <v>9</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="213" t="s">
-        <v>362</v>
-      </c>
-      <c r="B210" s="214" t="s">
-        <v>380</v>
+        <v>323</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="214" t="s">
+        <v>324</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="215" t="s">
+        <v>326</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="215" t="s">
-        <v>381</v>
+      <c r="A213" s="216" t="s">
+        <v>328</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="216" t="s">
-        <v>382</v>
+      <c r="A214" s="217" t="s">
+        <v>329</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="217" t="s">
-        <v>383</v>
+      <c r="A215" s="218" t="s">
+        <v>331</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="219" t="s">
+        <v>333</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="220" t="s">
+        <v>335</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="221" t="s">
+        <v>336</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="222" t="s">
+        <v>338</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="223" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="224" t="s">
+        <v>341</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="225" t="s">
+        <v>343</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="226" t="s">
+        <v>345</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="227" t="s">
+        <v>346</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="228" t="s">
+        <v>348</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="229" t="s">
+        <v>350</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="230" t="s">
+        <v>351</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="231" t="s">
+        <v>353</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="232" t="s">
+        <v>353</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="233" t="s">
+        <v>355</v>
+      </c>
+      <c r="B230" s="234" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="235" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="236" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="237" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
